--- a/output.xlsx
+++ b/output.xlsx
@@ -14,68 +14,61 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="15">
-  <si>
-    <t>06.04.2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Прыжки на месте 30 раз
-Приседания 14 раз
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="13">
+  <si>
+    <t>04.03.2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Пресс 42 раз
+Подтягивания 6 раз
 </t>
   </si>
   <si>
-    <t>73</t>
-  </si>
-  <si>
-    <t>07.04.2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Подтягивания 8 раз
-Отжимания 10 раз
+    <t>70</t>
+  </si>
+  <si>
+    <t>05.03.2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Приседания 8 раз
+Подтягивания 11 раз
 </t>
   </si>
   <si>
-    <t>08.04.2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Приседания 46 раз
-Отжимания 8 раз
+    <t>06.03.2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Прыжки на месте 9 раз
+Приседания 32 раз
+Отжимания 14 раз
+Пресс 66 раз
 </t>
   </si>
   <si>
-    <t>09.04.2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Подтягивания 18 раз
-Приседания 16 раз
+    <t>07.03.2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Приседания 27 раз
+Прыжки на месте 33 раз
+Пресс 16 раз
+Подтягивания 15 раз
 </t>
   </si>
   <si>
-    <t>10.04.2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Отжимания 25 раз
-Приседания 19 раз
-Прыжки на месте 32 раз
-Подтягивания 19 раз
+    <t>08.03.2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Подтягивания 31 раз
+Отжимания 29 раз
 </t>
   </si>
   <si>
-    <t>11.04.2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Подтягивания 18 раз
-Приседания 29 раз
-Отжимания 11 раз
-</t>
-  </si>
-  <si>
-    <t>12.04.2020</t>
+    <t>09.03.2020</t>
   </si>
   <si>
     <t xml:space="preserve">Прыжки на месте 29 раз
+Приседания 6 раз
 Подтягивания 13 раз
-Приседания 32 раз
 </t>
   </si>
 </sst>
@@ -434,13 +427,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:7">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -459,99 +452,87 @@
       <c r="G1" s="1">
         <v>5</v>
       </c>
-      <c r="H1" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
         <v>4</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4">
-        <v>5</v>
       </c>
       <c r="E4">
         <v>5</v>
       </c>
       <c r="F4">
+        <v>4</v>
+      </c>
+      <c r="G4">
         <v>5</v>
       </c>
-      <c r="G4">
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
         <v>4</v>
       </c>
-      <c r="H4">
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5">
-        <v>3</v>
-      </c>
-      <c r="D5">
-        <v>5</v>
-      </c>
-      <c r="E5">
-        <v>5</v>
-      </c>
-      <c r="F5">
-        <v>5</v>
-      </c>
-      <c r="G5">
-        <v>4</v>
-      </c>
-      <c r="H5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:7">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6">
         <v>3</v>
@@ -563,21 +544,18 @@
         <v>5</v>
       </c>
       <c r="F6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G6">
-        <v>3</v>
-      </c>
-      <c r="H6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:7">
       <c r="A7" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:7">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -599,115 +577,100 @@
       <c r="G8" t="s">
         <v>12</v>
       </c>
-      <c r="H8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
+        <v>24</v>
+      </c>
+      <c r="C9">
+        <v>9</v>
+      </c>
+      <c r="D9">
+        <v>60</v>
+      </c>
+      <c r="E9">
         <v>44</v>
       </c>
-      <c r="C9">
-        <v>36</v>
-      </c>
-      <c r="D9">
-        <v>108</v>
-      </c>
-      <c r="E9">
-        <v>34</v>
-      </c>
       <c r="F9">
-        <v>139</v>
+        <v>29</v>
       </c>
       <c r="G9">
-        <v>116</v>
-      </c>
-      <c r="H9">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="C10">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D10">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E10">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F10">
+        <v>60</v>
+      </c>
+      <c r="G10">
         <v>70</v>
       </c>
-      <c r="G10">
-        <v>75</v>
-      </c>
-      <c r="H10">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="C11">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D11">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="E11">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F11">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="G11">
-        <v>147</v>
-      </c>
-      <c r="H11">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
+        <v>160</v>
+      </c>
+      <c r="C12">
         <v>150</v>
       </c>
-      <c r="C12">
-        <v>149</v>
-      </c>
       <c r="D12">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="E12">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="F12">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="G12">
         <v>159</v>
       </c>
-      <c r="H12">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -729,11 +692,8 @@
       <c r="G13" t="s">
         <v>2</v>
       </c>
-      <c r="H13" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -753,9 +713,6 @@
         <v>2</v>
       </c>
       <c r="G14" t="s">
-        <v>2</v>
-      </c>
-      <c r="H14" t="s">
         <v>2</v>
       </c>
     </row>
